--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122883.667097551</v>
+        <v>2118871.057083558</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9729296.60764407</v>
+        <v>9729296.607644068</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>20.29515656310081</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>388.5242212023501</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>88.58584547962742</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.97912358225337</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>376.4087065861794</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>136.0870494265608</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247899</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>144.6613758678103</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>27.09132375782299</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>75.36029013146653</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>314.0994493592057</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>122.69811657173</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560553</v>
       </c>
     </row>
     <row r="12">
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>44.7513807668935</v>
       </c>
       <c r="T13" t="n">
-        <v>137.9792024346624</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631857144</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>105.6507867899569</v>
+        <v>4.444394634324135</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>35.41770597126747</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>245.879692121443</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>219.4517041866526</v>
+        <v>120.1447214650597</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>20.88994825141679</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>163.3760574240886</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>56.10180801516488</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>45.66054613217651</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>189.5765270689768</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>257.5655767733096</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>41.74133133758713</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2024.960096412931</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1655.997579472519</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1297.731880865769</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>911.9436282675244</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>500.9577234779169</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649822</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649822</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X2" t="n">
-        <v>2415.099428388743</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="Y2" t="n">
-        <v>2024.960096412931</v>
+        <v>2365.667596818511</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,31 +4427,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>831.4063538185609</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>576.721865612674</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X4" t="n">
-        <v>603.0669976776956</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.1890950693588</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1952.040104645725</v>
+        <v>2185.045504370167</v>
       </c>
       <c r="C5" t="n">
-        <v>1583.077587705314</v>
+        <v>1816.082987429756</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.077587705314</v>
+        <v>1457.817288823005</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.28933510707</v>
+        <v>1072.029036224761</v>
       </c>
       <c r="F5" t="n">
-        <v>786.303430317462</v>
+        <v>661.0431314351533</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839474</v>
+        <v>245.9706812801498</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.33740552049</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.33740552049</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.27451817692</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906805</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645725</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.040104645725</v>
+        <v>2571.645344434289</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387319</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927795</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.7032203507512</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C7" t="n">
-        <v>240.7670374228443</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="D7" t="n">
-        <v>240.7670374228443</v>
+        <v>770.7703664058488</v>
       </c>
       <c r="E7" t="n">
-        <v>240.7670374228443</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>93.87708992493395</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218346</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218346</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962297</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877118</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877118</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877118</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>409.7032203507512</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>409.7032203507512</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.7032203507512</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>939.4077790033348</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>939.4077790033348</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>553.6195264050905</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>142.6336216154829</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794326</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794326</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2438.534757724422</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.39542574861</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4877,22 +4877,22 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859227991</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031464</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215812</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946292</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946292</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946292</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>359.6192507122361</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962297</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>796.9495143315899</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>796.9495143315899</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>796.9495143315899</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>507.5323442946292</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>507.5323442946292</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.5323442946292</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2401.759668664207</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.590151828076</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841084</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>980.1499206998673</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>956.9553291057305</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778236</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654878</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830947</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851843</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000643</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000643</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>2192.57325797815</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1903.498031322348</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1648.813543116461</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1359.3963730795</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1359.3963730795</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1138.60379393597</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3342.537229081859</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153952</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U19" t="n">
-        <v>4221.331149328841</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V19" t="n">
-        <v>4221.331149328841</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W19" t="n">
-        <v>3972.967823953646</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>3744.978273055629</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>3524.185693912098</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797747</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,49 +5971,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.792692443183</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V25" t="n">
-        <v>1501.108204237296</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W25" t="n">
-        <v>1501.108204237296</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558406</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630499</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>2567.686528800785</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>2419.773435218392</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>2419.773435218392</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218392</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.07903472198</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3046.798896214206</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>2881.772575583813</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583813</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.85948200142</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.96953450351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.33114932884</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122953</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085993</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187976</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.447361044446</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3175.341129796739</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>3006.404946868832</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4384.264121361289</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4095.188894705487</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>4095.188894705487</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3805.771724668526</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3577.782173770509</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3356.989594626978</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>363.7369613277355</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3110.333886317437</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3740.764481189224</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3740.764481189224</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3512.774930291207</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3291.982351147677</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,34 +7405,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.53411638285</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>945.5445654848324</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>724.7519863413023</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3807.864035926977</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>135.9796239950296</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>135.9796239950296</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>136.2749052347511</v>
       </c>
       <c r="T13" t="n">
-        <v>79.42624789262584</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>111.7546635373313</v>
+        <v>212.9610556929641</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>30.95754073885419</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.64330621514796</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.32043864788525</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>66.73277020259155</v>
+        <v>166.0397529241844</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>127.7255247667956</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>3.870763674539234</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>161.3036423121234</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>100.7734165143927</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>62.56111625485124</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>28.9574215632814</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>39.5245049809784</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775395</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775395</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516052</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516053</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516052</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>6.34467155123275e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405237</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405244</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
+        <v>14826.69604186728</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14826.69604186726</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14826.6960418673</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186742</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14826.69604186732</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26456,7 +26456,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414332</v>
+        <v>-935020.1472414329</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861589</v>
+        <v>393724.5984861594</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861598</v>
+        <v>393724.5984861599</v>
       </c>
       <c r="E6" t="n">
-        <v>143819.5971021252</v>
+        <v>143472.2178477668</v>
       </c>
       <c r="F6" t="n">
-        <v>469232.0589094798</v>
+        <v>468884.6796551229</v>
       </c>
       <c r="G6" t="n">
-        <v>469232.0589094801</v>
+        <v>468884.6796551232</v>
       </c>
       <c r="H6" t="n">
-        <v>469232.0589094798</v>
+        <v>468884.679655123</v>
       </c>
       <c r="I6" t="n">
-        <v>469232.0589094797</v>
+        <v>468884.6796551227</v>
       </c>
       <c r="J6" t="n">
-        <v>251700.8565122023</v>
+        <v>251353.4772578456</v>
       </c>
       <c r="K6" t="n">
-        <v>469232.0589094801</v>
+        <v>468884.6796551229</v>
       </c>
       <c r="L6" t="n">
-        <v>469232.0589094801</v>
+        <v>468884.679655123</v>
       </c>
       <c r="M6" t="n">
-        <v>384177.0309739683</v>
+        <v>383829.6517196107</v>
       </c>
       <c r="N6" t="n">
-        <v>469232.0589094801</v>
+        <v>468884.6796551229</v>
       </c>
       <c r="O6" t="n">
-        <v>469232.0589094801</v>
+        <v>468884.6796551229</v>
       </c>
       <c r="P6" t="n">
-        <v>469232.0589094799</v>
+        <v>468884.679655123</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>362.4386851003798</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.39750445110332</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,19 +27593,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>197.6259927259854</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>129.6055297698414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>34.513019067274</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>158.5207149607597</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.598721155460225e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>1.772586778758836</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>138.9344845012052</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>335.5614355219869</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>55.63165131926337</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>96.85083270443921</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28155,10 +28155,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-5.925249708871844e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.741547012421679e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-5.925249708871844e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-5.925249708871844e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-5.925249708871844e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28392,10 +28392,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-5.925249708871844e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-5.925249708871844e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28505,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-5.938087749907735e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026421</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>652.047896915769</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718153</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>308.1572428165614</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817577</v>
@@ -32548,16 +32548,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>213.3000196296242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32788,7 +32788,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>489.3502824033305</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
         <v>867.8464071162563</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33271,7 +33271,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>200.4500263280935</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O36" t="n">
-        <v>235.5705495535876</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>370.9642309107742</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014226</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597539</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014226</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>243.7989988974562</v>
       </c>
       <c r="L15" t="n">
-        <v>73.18080466315317</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>165.5609983721169</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>79.325612215294</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,19 +36445,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>347.2162484813122</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36928,10 +36928,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>66.47561891376326</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O36" t="n">
-        <v>92.97430510914316</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>228.3679864663297</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2118871.057083558</v>
+        <v>2120631.587386343</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.29515656310081</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>224.7411810187715</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851005</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>166.2198619158009</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>88.58584547962742</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>344.0742890162431</v>
       </c>
       <c r="H5" t="n">
-        <v>136.0870494265608</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>144.6613758678103</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>130.4362160910166</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>75.36029013146653</v>
+        <v>88.41656468863553</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677224</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386356</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,16 +1429,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560553</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.146142788180732</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>44.7513807668935</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631857144</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>4.444394634324135</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.41770597126747</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710096</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784672</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2289,25 +2289,25 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>107.1685137621105</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144416</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>120.1447214650597</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588585</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3714,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794323</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.667596818511</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218339</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218339</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U4" t="n">
-        <v>831.4063538185609</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V4" t="n">
-        <v>576.721865612674</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="W4" t="n">
-        <v>287.3046955757135</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757135</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218339</v>
+        <v>699.1203903877115</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2185.045504370167</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1816.082987429756</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D5" t="n">
-        <v>1457.817288823005</v>
+        <v>1210.836060705129</v>
       </c>
       <c r="E5" t="n">
-        <v>1072.029036224761</v>
+        <v>825.047808106885</v>
       </c>
       <c r="F5" t="n">
-        <v>661.0431314351533</v>
+        <v>414.0619033172774</v>
       </c>
       <c r="G5" t="n">
-        <v>245.9706812801498</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410101</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2961.784676410101</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>2571.645344434289</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181845</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C7" t="n">
-        <v>920.8870058181845</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>770.7703664058488</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>699.3027949484234</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>699.3027949484234</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>699.3027949484234</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>444.6183067425365</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>444.6183067425365</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181845</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943746</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033348</v>
+        <v>1292.176434273451</v>
       </c>
       <c r="D8" t="n">
-        <v>939.4077790033348</v>
+        <v>1292.176434273451</v>
       </c>
       <c r="E8" t="n">
-        <v>553.6195264050905</v>
+        <v>906.3881816752071</v>
       </c>
       <c r="F8" t="n">
-        <v>142.6336216154829</v>
+        <v>495.4022768855995</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919558</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943746</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>739.2385409879453</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>570.3023580600384</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>420.1857186477026</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>272.2726250653095</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>125.3826775673992</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5083,10 +5083,10 @@
         <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.528408326419</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>718.5507239167111</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597633</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597633</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597633</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597633</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746432</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>103.0551911168413</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5214,37 +5214,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2401.759668664207</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.158203687148</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1893.082977031346</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1638.398488825459</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1348.981318788498</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1120.991767890481</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y13" t="n">
-        <v>900.1991887469509</v>
+        <v>762.5477693179099</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841084</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998673</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.528408326419</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057305</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778236</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654878</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830947</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851843</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2192.57325797815</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1903.498031322348</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1648.813543116461</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1359.3963730795</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.3963730795</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.60379393597</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,58 +5491,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>408.9258559154851</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2411.187623003223</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2411.187623003223</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.586158026164</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.510931370362</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429802</v>
@@ -5904,10 +5904,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362709</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6241,13 +6241,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6487,25 +6487,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111701</v>
@@ -6849,7 +6849,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6919,46 +6919,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7025,19 +7025,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7074,22 +7074,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998291</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998291</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7326,10 +7326,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7362,10 +7362,10 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
         <v>1491.508541327549</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7420,16 +7420,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7593,7 +7593,7 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
         <v>2254.869721166297</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7648,28 +7648,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>72.11969353038478</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012393</v>
       </c>
       <c r="S13" t="n">
-        <v>136.2749052347511</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>212.9610556929641</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>30.95754073885419</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>179.3544845744806</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>166.0397529241844</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>43.26526345294944</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>146.8157004124957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841353.9758775395</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775395</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841353.9758775395</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775395</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752541</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
@@ -26343,16 +26343,16 @@
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
+        <v>14826.69604186726</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14826.6960418673</v>
+      </c>
+      <c r="G4" t="n">
         <v>14826.69604186728</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>14826.69604186726</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14826.6960418673</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414329</v>
+        <v>-935020.1472414338</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861594</v>
+        <v>393724.5984861599</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861599</v>
+        <v>393724.5984861598</v>
       </c>
       <c r="E6" t="n">
-        <v>143472.2178477668</v>
+        <v>143784.8591766883</v>
       </c>
       <c r="F6" t="n">
-        <v>468884.6796551229</v>
+        <v>469197.3209840445</v>
       </c>
       <c r="G6" t="n">
-        <v>468884.6796551232</v>
+        <v>469197.3209840441</v>
       </c>
       <c r="H6" t="n">
-        <v>468884.679655123</v>
+        <v>469197.320984044</v>
       </c>
       <c r="I6" t="n">
-        <v>468884.6796551227</v>
+        <v>469197.3209840443</v>
       </c>
       <c r="J6" t="n">
-        <v>251353.4772578456</v>
+        <v>251666.1185867667</v>
       </c>
       <c r="K6" t="n">
-        <v>468884.6796551229</v>
+        <v>469197.3209840441</v>
       </c>
       <c r="L6" t="n">
-        <v>468884.679655123</v>
+        <v>469197.320984044</v>
       </c>
       <c r="M6" t="n">
-        <v>383829.6517196107</v>
+        <v>384142.2930485323</v>
       </c>
       <c r="N6" t="n">
-        <v>468884.6796551229</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="O6" t="n">
-        <v>468884.6796551229</v>
+        <v>469197.320984044</v>
       </c>
       <c r="P6" t="n">
-        <v>468884.679655123</v>
+        <v>469197.3209840442</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.4386851003798</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>144.9899196596975</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>13.61211826613638</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>197.6259927259854</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>66.84743663721036</v>
       </c>
       <c r="H5" t="n">
-        <v>158.5207149607597</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.772586778758836</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>59.33280924042532</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>335.5614355219869</v>
+        <v>322.5051609648179</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351651</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28143,22 +28143,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>-5.925249708871844e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.741547012421679e-12</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-2.302317070068799e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.925249708871844e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.925249708871844e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,10 +28380,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
-        <v>-5.925249708871844e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28392,10 +28392,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-5.925249708871844e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-5.925249708871844e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28505,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-5.938087749907735e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28563,10 +28563,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28575,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28803,22 +28803,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-2.073442107663642e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-2.266523520590673e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31791,10 +31791,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>652.047896915769</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>381.6404378718153</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817577</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
         <v>867.8464071162563</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043726</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817577</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9138629937507</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7989988974562</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
